--- a/Progress tracker.xlsx
+++ b/Progress tracker.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="49">
   <si>
     <t>Function</t>
   </si>
@@ -164,6 +164,18 @@
 3.  We could also make the bootstrap reps an argument
 4.  I am not sure about whether we should also bootstrap the overall function;probably should, and express the estimate as a 95% confidence interval.  
 </t>
+  </si>
+  <si>
+    <t>Part of documentation (see: details) copied almost verbatim from Tredoux (1998, p. 223). Is this fine?</t>
+  </si>
+  <si>
+    <t>General:</t>
+  </si>
+  <si>
+    <t>Change susp_pos to target_pos for all functions</t>
+  </si>
+  <si>
+    <t>In cases where we compute proportion for each lineup member, should I rather call the parameter 'member_pos' instead of 'target_pos'?</t>
   </si>
 </sst>
 </file>
@@ -325,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -342,6 +354,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW358"/>
+  <dimension ref="A1:AW361"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -675,129 +688,105 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="11"/>
-    </row>
-    <row r="3" spans="1:49" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+    <row r="2" spans="1:49" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:49" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
-      <c r="AN3" s="3"/>
-      <c r="AO3" s="3"/>
-      <c r="AP3" s="3"/>
-      <c r="AQ3" s="3"/>
-      <c r="AR3" s="3"/>
-      <c r="AS3" s="3"/>
-      <c r="AT3" s="3"/>
-      <c r="AU3" s="3"/>
-      <c r="AV3" s="3"/>
-      <c r="AW3" s="3"/>
-    </row>
-    <row r="4" spans="1:49" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="3"/>
+      <c r="AV6" s="3"/>
+      <c r="AW6" s="3"/>
+    </row>
+    <row r="7" spans="1:49" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="11"/>
-    </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="B7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>38</v>
+      <c r="C7" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="D7" s="11"/>
-      <c r="E7" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>37</v>
@@ -805,11 +794,13 @@
       <c r="C8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="11" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>37</v>
@@ -818,30 +809,25 @@
         <v>37</v>
       </c>
       <c r="D9" s="11"/>
-      <c r="E9" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>37</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D10" s="11"/>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>37</v>
@@ -853,7 +839,7 @@
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>37</v>
@@ -862,169 +848,228 @@
         <v>37</v>
       </c>
       <c r="D12" s="11"/>
-    </row>
-    <row r="13" spans="1:49" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="13" t="s">
-        <v>44</v>
+      <c r="D13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:49" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="B18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="11"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="B19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="11"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="B20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="11"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="B21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="11"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="B22" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="11"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="B23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="11"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="11"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="11"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="9"/>
       <c r="D24" s="11"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="9"/>
       <c r="D25" s="11"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="9"/>
       <c r="D26" s="11"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="9"/>
       <c r="D27" s="11"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="9"/>
       <c r="D28" s="11"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="9"/>
       <c r="D29" s="11"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="9"/>
       <c r="D30" s="11"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="9"/>
       <c r="D31" s="11"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="9"/>
@@ -1032,7 +1077,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="9"/>
@@ -1040,7 +1085,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="9"/>
@@ -1048,7 +1093,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="9"/>
@@ -1056,26 +1101,32 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="9"/>
       <c r="D36" s="11"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
+      <c r="A37" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="B37" s="6"/>
       <c r="C37" s="9"/>
       <c r="D37" s="11"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
+      <c r="A38" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="B38" s="6"/>
       <c r="C38" s="9"/>
       <c r="D38" s="11"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
+      <c r="A39" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="B39" s="6"/>
       <c r="C39" s="9"/>
       <c r="D39" s="11"/>
@@ -1790,16 +1841,19 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="4"/>
+      <c r="B158" s="6"/>
       <c r="C158" s="9"/>
       <c r="D158" s="11"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="4"/>
+      <c r="B159" s="6"/>
       <c r="C159" s="9"/>
       <c r="D159" s="11"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="4"/>
+      <c r="B160" s="6"/>
       <c r="C160" s="9"/>
       <c r="D160" s="11"/>
     </row>
@@ -1896,14 +1950,17 @@
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="4"/>
       <c r="C179" s="9"/>
+      <c r="D179" s="11"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="4"/>
       <c r="C180" s="9"/>
+      <c r="D180" s="11"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="4"/>
       <c r="C181" s="9"/>
+      <c r="D181" s="11"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="4"/>
@@ -1931,12 +1988,15 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="4"/>
+      <c r="C188" s="9"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="4"/>
+      <c r="C189" s="9"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="4"/>
+      <c r="C190" s="9"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="4"/>
@@ -2441,6 +2501,15 @@
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A358" s="4"/>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A359" s="4"/>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A360" s="4"/>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A361" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Progress tracker.xlsx
+++ b/Progress tracker.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Functions Progress" sheetId="1" r:id="rId1"/>
+    <sheet name="Notes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="55">
   <si>
     <t>Function</t>
   </si>
@@ -177,12 +178,30 @@
   <si>
     <t>In cases where we compute proportion for each lineup member, should I rather call the parameter 'member_pos' instead of 'target_pos'?</t>
   </si>
+  <si>
+    <t>Package dependencies</t>
+  </si>
+  <si>
+    <t>tidyverse</t>
+  </si>
+  <si>
+    <t>magrittr</t>
+  </si>
+  <si>
+    <t>boot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One error msg: attempt to use zero-length variable name. Reran and error message disappeared, all worked fine. </t>
+  </si>
+  <si>
+    <t>This doesn't work with a list. Should we edit it so that it does?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +220,14 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -337,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -355,6 +382,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -671,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1007,25 +1036,49 @@
       <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="11"/>
+      <c r="B24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="11"/>
+      <c r="B25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="11"/>
+      <c r="B26" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
@@ -2515,4 +2568,42 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Progress tracker.xlsx
+++ b/Progress tracker.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="56">
   <si>
     <t>Function</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>This doesn't work with a list. Should we edit it so that it does?</t>
+  </si>
+  <si>
+    <t>homog_diag_boot</t>
   </si>
 </sst>
 </file>
@@ -698,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW361"/>
+  <dimension ref="A1:AW362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1084,29 +1087,43 @@
       <c r="A27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="11"/>
+      <c r="B27" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="9"/>
+      <c r="B28" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="D28" s="11"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="9"/>
+        <v>55</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="D29" s="11"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="9"/>
@@ -1114,7 +1131,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="9"/>
@@ -1122,7 +1139,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="9"/>
@@ -1130,7 +1147,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="9"/>
@@ -1138,7 +1155,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="9"/>
@@ -1146,7 +1163,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="9"/>
@@ -1154,7 +1171,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="9"/>
@@ -1162,7 +1179,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="9"/>
@@ -1170,7 +1187,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="9"/>
@@ -1178,14 +1195,16 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="9"/>
       <c r="D39" s="11"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
+      <c r="A40" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="B40" s="6"/>
       <c r="C40" s="9"/>
       <c r="D40" s="11"/>
@@ -1912,6 +1931,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="4"/>
+      <c r="B161" s="6"/>
       <c r="C161" s="9"/>
       <c r="D161" s="11"/>
     </row>
@@ -2018,6 +2038,7 @@
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="4"/>
       <c r="C182" s="9"/>
+      <c r="D182" s="11"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="4"/>
@@ -2053,6 +2074,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="4"/>
+      <c r="C191" s="9"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="4"/>
@@ -2563,6 +2585,9 @@
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A361" s="4"/>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A362" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Progress tracker.xlsx
+++ b/Progress tracker.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="56">
   <si>
     <t>Function</t>
   </si>
@@ -704,7 +704,7 @@
   <dimension ref="A1:AW362"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1125,16 +1125,24 @@
       <c r="A30" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="9"/>
+      <c r="B30" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="9"/>
+      <c r="B31" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="D31" s="11"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">

--- a/Progress tracker.xlsx
+++ b/Progress tracker.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="68">
   <si>
     <t>Function</t>
   </si>
@@ -198,6 +198,42 @@
   </si>
   <si>
     <t>homog_diag_boot</t>
+  </si>
+  <si>
+    <t>Not needed</t>
+  </si>
+  <si>
+    <t>allfoil_ci_high</t>
+  </si>
+  <si>
+    <t>allfoil_ci_low</t>
+  </si>
+  <si>
+    <t>Ask about this code. Looks like it needs a table of bootstrapped data</t>
+  </si>
+  <si>
+    <t>gen_esize_m_ci</t>
+  </si>
+  <si>
+    <t>gen_esize_T_ci</t>
+  </si>
+  <si>
+    <t>How is this different to the function above?</t>
+  </si>
+  <si>
+    <t>gen_boot_propci</t>
+  </si>
+  <si>
+    <t>This function and the two below have exactly the same code</t>
+  </si>
+  <si>
+    <t>gen_boot_propmean_se</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>See comments in documentation re getting df of bootstrapped proportions</t>
   </si>
 </sst>
 </file>
@@ -367,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -387,6 +423,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -703,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1149,117 +1186,207 @@
       <c r="A32" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="9"/>
+      <c r="B32" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="D32" s="11"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="9"/>
+      <c r="B33" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="D33" s="11"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="9"/>
+      <c r="B34" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="D34" s="11"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="9"/>
+      <c r="B35" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="D35" s="11"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="9"/>
+      <c r="B36" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="D36" s="11"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="9"/>
+      <c r="B37" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="D37" s="11"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="9"/>
+      <c r="B38" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="D38" s="11"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="9"/>
+      <c r="B39" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="D39" s="11"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="9"/>
+      <c r="B40" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="D40" s="11"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="4"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="9"/>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="D41" s="11"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="4"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="9"/>
+      <c r="E41" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="D42" s="11"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="4"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="9"/>
+      <c r="E42" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="D43" s="11"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="4"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="9"/>
+      <c r="E43" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="D44" s="11"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="4"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="9"/>
+      <c r="E44" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="D45" s="11"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="4"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="9"/>
+      <c r="E45" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="D46" s="11"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E46" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="6"/>
       <c r="C47" s="9"/>
       <c r="D47" s="11"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="6"/>
       <c r="C48" s="9"/>

--- a/Progress tracker.xlsx
+++ b/Progress tracker.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="76">
   <si>
     <t>Function</t>
   </si>
@@ -81,9 +81,6 @@
     <t>func_size_boot</t>
   </si>
   <si>
-    <t>func_size_master</t>
-  </si>
-  <si>
     <t>Testing</t>
   </si>
   <si>
@@ -93,15 +90,9 @@
     <t>gen_boot_samples_list</t>
   </si>
   <si>
-    <t>gen_esize</t>
-  </si>
-  <si>
     <t>gen_lineup_prop</t>
   </si>
   <si>
-    <t>i_T</t>
-  </si>
-  <si>
     <t>homog_diag</t>
   </si>
   <si>
@@ -145,9 +136,6 @@
   </si>
   <si>
     <t>Comments</t>
-  </si>
-  <si>
-    <t>Have not looked at this function</t>
   </si>
   <si>
     <t>Part of documentation (see: details) copied almost verbatim from Tredoux (1998, p. 234). Is this fine?</t>
@@ -224,9 +212,6 @@
     <t>gen_boot_propci</t>
   </si>
   <si>
-    <t>This function and the two below have exactly the same code</t>
-  </si>
-  <si>
     <t>gen_boot_propmean_se</t>
   </si>
   <si>
@@ -234,13 +219,52 @@
   </si>
   <si>
     <t>See comments in documentation re getting df of bootstrapped proportions</t>
+  </si>
+  <si>
+    <t>allfoil_cis</t>
+  </si>
+  <si>
+    <t>Partial</t>
+  </si>
+  <si>
+    <t>We already have a function that can do this for us. Do we still need to include this one?</t>
+  </si>
+  <si>
+    <t>diag_param_boot</t>
+  </si>
+  <si>
+    <t>What happens when lineups are a different length? Df cannot contain columns of different lengths. Can we make these work with a list?</t>
+  </si>
+  <si>
+    <t>boot helper</t>
+  </si>
+  <si>
+    <t>Not sure what this code does</t>
+  </si>
+  <si>
+    <t>Part of documentation (see: details) copied almost verbatim from Tredoux (1998, p. 223). Is this fine? NOT NECESSARY. SAME CALCS in esize_m</t>
+  </si>
+  <si>
+    <t>func_size_report</t>
+  </si>
+  <si>
+    <t>This function and the two below have exactly the same code. Also, we already have a function that does this</t>
+  </si>
+  <si>
+    <t>gen_esize_T</t>
+  </si>
+  <si>
+    <t>How is this different to the function above? Also, is this necessary? We have another function that does this with boot package (see: lineup_boot_allprop, lineup_prop_boot)</t>
+  </si>
+  <si>
+    <t>i_esize_T</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,13 +296,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="11">
@@ -403,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -424,6 +460,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -738,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW362"/>
+  <dimension ref="A1:AW365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -762,16 +809,16 @@
     </row>
     <row r="3" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.3">
@@ -791,10 +838,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -846,643 +893,659 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:49" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B9" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:49" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:49" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="26"/>
+    </row>
+    <row r="12" spans="1:49" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:49" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="26"/>
+    </row>
+    <row r="14" spans="1:49" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="9" t="s">
+    </row>
+    <row r="15" spans="1:49" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" t="s">
+    </row>
+    <row r="16" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="26"/>
+    </row>
+    <row r="18" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="26"/>
+    </row>
+    <row r="19" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="11"/>
-    </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" t="s">
+    <row r="20" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="26"/>
+      <c r="E21" s="27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="26"/>
+      <c r="E22" s="27" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16" spans="1:49" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+    <row r="23" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="B23" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="26"/>
+      <c r="E23" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="11"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+      <c r="B24" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="26"/>
+    </row>
+    <row r="25" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="11"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="11"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+      <c r="B25" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="26"/>
+    </row>
+    <row r="26" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="26"/>
+    </row>
+    <row r="27" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+      <c r="B28" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+      <c r="B30" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="11"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="11"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="11"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="11"/>
+      <c r="B31" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="26"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="26"/>
+    </row>
+    <row r="34" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="26"/>
+    </row>
+    <row r="35" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="26"/>
+    </row>
+    <row r="36" spans="1:5" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="26"/>
+    </row>
+    <row r="37" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="26"/>
+    </row>
+    <row r="38" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="11"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+      <c r="B38" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="26"/>
+    </row>
+    <row r="39" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="11"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+      <c r="B39" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="26"/>
+    </row>
+    <row r="40" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="11"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+      <c r="B40" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="26"/>
+    </row>
+    <row r="41" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="11"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+      <c r="B41" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="26"/>
+    </row>
+    <row r="42" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" s="11"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+      <c r="B42" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" s="26"/>
+    </row>
+    <row r="43" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D37" s="11"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38" s="11"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="11"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" s="11"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D41" s="11"/>
-      <c r="E41" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D43" s="11"/>
-      <c r="E43" s="16" t="s">
-        <v>64</v>
-      </c>
+      <c r="B43" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="26"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="16" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="16" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>66</v>
+        <v>56</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="16" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="4"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="9"/>
+      <c r="A47" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="D47" s="11"/>
+      <c r="E47" s="16" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="4"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="9"/>
+      <c r="A48" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="D48" s="11"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="4"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="9"/>
+      <c r="E48" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="D49" s="11"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E49" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="6"/>
       <c r="C50" s="9"/>
       <c r="D50" s="11"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="6"/>
       <c r="C51" s="9"/>
       <c r="D51" s="11"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="6"/>
       <c r="C52" s="9"/>
       <c r="D52" s="11"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="6"/>
       <c r="C53" s="9"/>
       <c r="D53" s="11"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="6"/>
       <c r="C54" s="9"/>
       <c r="D54" s="11"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="6"/>
       <c r="C55" s="9"/>
       <c r="D55" s="11"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="6"/>
       <c r="C56" s="9"/>
       <c r="D56" s="11"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="6"/>
       <c r="C57" s="9"/>
       <c r="D57" s="11"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="6"/>
       <c r="C58" s="9"/>
       <c r="D58" s="11"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="6"/>
       <c r="C59" s="9"/>
       <c r="D59" s="11"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="6"/>
       <c r="C60" s="9"/>
       <c r="D60" s="11"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="6"/>
       <c r="C61" s="9"/>
       <c r="D61" s="11"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="B62" s="6"/>
       <c r="C62" s="9"/>
       <c r="D62" s="11"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="6"/>
       <c r="C63" s="9"/>
       <c r="D63" s="11"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="6"/>
       <c r="C64" s="9"/>
@@ -2072,16 +2135,19 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="4"/>
+      <c r="B162" s="6"/>
       <c r="C162" s="9"/>
       <c r="D162" s="11"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="4"/>
+      <c r="B163" s="6"/>
       <c r="C163" s="9"/>
       <c r="D163" s="11"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="4"/>
+      <c r="B164" s="6"/>
       <c r="C164" s="9"/>
       <c r="D164" s="11"/>
     </row>
@@ -2178,14 +2244,17 @@
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="4"/>
       <c r="C183" s="9"/>
+      <c r="D183" s="11"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="4"/>
       <c r="C184" s="9"/>
+      <c r="D184" s="11"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="4"/>
       <c r="C185" s="9"/>
+      <c r="D185" s="11"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="4"/>
@@ -2213,53 +2282,56 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="4"/>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C192" s="9"/>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="4"/>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C193" s="9"/>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="4"/>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C194" s="9"/>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="4"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.3">
@@ -2723,6 +2795,15 @@
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A362" s="4"/>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A363" s="4"/>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A364" s="4"/>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A365" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2745,22 +2826,22 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Progress tracker.xlsx
+++ b/Progress tracker.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tamsyn Naylor\Documents\R Programming\lineupstat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\github\lineupstat\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292EFD03-FE98-4F17-AA97-9D6E0C78E422}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Functions Progress" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="96">
   <si>
     <t>Function</t>
   </si>
@@ -144,103 +145,482 @@
     <t>No</t>
   </si>
   <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Have not looked at this function</t>
-  </si>
-  <si>
-    <t>Part of documentation (see: details) copied almost verbatim from Tredoux (1998, p. 234). Is this fine?</t>
-  </si>
-  <si>
-    <t>Make sure changes to this function reflect in other functions that call this one</t>
-  </si>
-  <si>
     <t>diag_param</t>
   </si>
   <si>
-    <t xml:space="preserve">Still needs some changes: 
-1.  We should probably add alpha option (choose some value other than 0.95, default in boot)
+    <t>General:</t>
+  </si>
+  <si>
+    <t>Change susp_pos to target_pos for all functions</t>
+  </si>
+  <si>
+    <t>In cases where we compute proportion for each lineup member, should I rather call the parameter 'member_pos' instead of 'target_pos'?</t>
+  </si>
+  <si>
+    <t>Package dependencies</t>
+  </si>
+  <si>
+    <t>tidyverse</t>
+  </si>
+  <si>
+    <t>magrittr</t>
+  </si>
+  <si>
+    <t>boot</t>
+  </si>
+  <si>
+    <t>homog_diag_boot</t>
+  </si>
+  <si>
+    <t>Not needed</t>
+  </si>
+  <si>
+    <t>allfoil_ci_high</t>
+  </si>
+  <si>
+    <t>allfoil_ci_low</t>
+  </si>
+  <si>
+    <t>gen_esize_m_ci</t>
+  </si>
+  <si>
+    <t>gen_esize_T_ci</t>
+  </si>
+  <si>
+    <t>gen_boot_propci</t>
+  </si>
+  <si>
+    <t>gen_boot_propmean_se</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>psych</t>
+  </si>
+  <si>
+    <t>ggrepel</t>
+  </si>
+  <si>
+    <t>pROC</t>
+  </si>
+  <si>
+    <t>GPArotation</t>
+  </si>
+  <si>
+    <t>magick</t>
+  </si>
+  <si>
+    <t>here</t>
+  </si>
+  <si>
+    <t>sim_face</t>
+  </si>
+  <si>
+    <t>show_lineup</t>
+  </si>
+  <si>
+    <t>Helper function</t>
+  </si>
+  <si>
+    <t>make_lineup_data</t>
+  </si>
+  <si>
+    <t>make_roc_data</t>
+  </si>
+  <si>
+    <t>make_roc_gg</t>
+  </si>
+  <si>
+    <t>make_roc</t>
+  </si>
+  <si>
+    <t>Reply</t>
+  </si>
+  <si>
+    <t>Yes. We might want to get someone to check</t>
+  </si>
+  <si>
+    <t>Need to - I think it is important</t>
+  </si>
+  <si>
+    <t>I don't think user needs to see this function?</t>
+  </si>
+  <si>
+    <t>Yes, add alpha as argument, offer Bonferonni etc</t>
+  </si>
+  <si>
+    <t>Have to check?</t>
+  </si>
+  <si>
+    <t>Does user call it?  Does it need to do lists?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Comments, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>plus replies</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Have not looked at this function.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I think we need this don't we?  Allows user to compute difference between two ES estimates</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Part of documentation (see: details) copied almost verbatim from Tredoux (1998, p. 234). Is this fine?  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FINE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Make sure changes to this function reflect in other functions that call this one; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OK</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Still needs some changes:  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I think these are my comments from earlier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.  We should probably add alpha option (choose some value other than 0.95, default in boot)   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AGREED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 2.  We could offer alpha correction, too, since we are essentially doing k sig tests in that procedure.  What I mean is that we can add an argument allowing user to specify Bonferroni correction, or similar, and that would mean adjusting the CIs by simply adjusting the alpha argument.  Default would be FALSE
-3.  We could also make the bootstrap reps an argument
-4.  I am not sure about whether we should also bootstrap the overall function;probably should, and express the estimate as a 95% confidence interval.  
+3.  We could also make the bootstrap reps an argument  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>YES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4.  I am not sure about whether we should also bootstrap the overall function;probably should, and express the estimate as a 95% confidence interval.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>YES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
-  </si>
-  <si>
-    <t>Part of documentation (see: details) copied almost verbatim from Tredoux (1998, p. 223). Is this fine?</t>
-  </si>
-  <si>
-    <t>General:</t>
-  </si>
-  <si>
-    <t>Change susp_pos to target_pos for all functions</t>
-  </si>
-  <si>
-    <t>In cases where we compute proportion for each lineup member, should I rather call the parameter 'member_pos' instead of 'target_pos'?</t>
-  </si>
-  <si>
-    <t>Package dependencies</t>
-  </si>
-  <si>
-    <t>tidyverse</t>
-  </si>
-  <si>
-    <t>magrittr</t>
-  </si>
-  <si>
-    <t>boot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One error msg: attempt to use zero-length variable name. Reran and error message disappeared, all worked fine. </t>
-  </si>
-  <si>
-    <t>This doesn't work with a list. Should we edit it so that it does?</t>
-  </si>
-  <si>
-    <t>homog_diag_boot</t>
-  </si>
-  <si>
-    <t>Not needed</t>
-  </si>
-  <si>
-    <t>allfoil_ci_high</t>
-  </si>
-  <si>
-    <t>allfoil_ci_low</t>
-  </si>
-  <si>
-    <t>Ask about this code. Looks like it needs a table of bootstrapped data</t>
-  </si>
-  <si>
-    <t>gen_esize_m_ci</t>
-  </si>
-  <si>
-    <t>gen_esize_T_ci</t>
-  </si>
-  <si>
-    <t>How is this different to the function above?</t>
-  </si>
-  <si>
-    <t>gen_boot_propci</t>
-  </si>
-  <si>
-    <t>This function and the two below have exactly the same code</t>
-  </si>
-  <si>
-    <t>gen_boot_propmean_se</t>
-  </si>
-  <si>
-    <t>In progress</t>
-  </si>
-  <si>
-    <t>See comments in documentation re getting df of bootstrapped proportions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Part of documentation (see: details) copied almost verbatim from Tredoux (1998, p. 223). Is this fine?  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OK</t>
+    </r>
+  </si>
+  <si>
+    <t>Part of documentation (see: details) copied almost verbatim from Tredoux (1998, p. 223). Is this fine?  OK</t>
+  </si>
+  <si>
+    <t>Part of documentation (see: details) copied almost verbatim from Tredoux (1998, p. 223). Is this fine? OK</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">One error msg: attempt to use zero-length variable name. Reran and error message disappeared, all worked fine.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sounds like it needs more checking</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This doesn't work with a list. Should we edit it so that it does?  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I think so</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Not nec to make it accessible </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>agreed</t>
+    </r>
+  </si>
+  <si>
+    <t>Not nec to make it accessible agreed</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Might want to make it accessible, shows a lineup, useful </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>YES, I THINK IT WOULD HELP USAGE TO SEE THE LINEUP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Experimental function; seems to work, needs checking on another computer etc.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>YES&lt; NEED TO CHECK</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ask about this code. Looks like it needs a table of bootstrapped data  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cant remember, but if so, yes.  But do we need to declare it, or reserve it</t>
+    </r>
+  </si>
+  <si>
+    <t>Ask about this code. Looks like it needs a table of bootstrapped data  cant remember, but if so, yes.  But do we need to declare it, or reserve it</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This function and the two below have exactly the same code </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>may be duplicate, keep them both but don't declare one</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">How is this different to the function above? </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>See above comment</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">How is this different to the function above? </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Not sure that we need this anymore, but keep in the package and don't declare or document</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">See comments in documentation re getting df of bootstrapped proportions  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>can't look quite yet, will try later</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +646,30 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -737,11 +1141,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW362"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AW368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="6" topLeftCell="F31" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -750,6 +1157,7 @@
     <col min="2" max="2" width="11.44140625" customWidth="1"/>
     <col min="3" max="3" width="22.109375" customWidth="1"/>
     <col min="5" max="5" width="140" customWidth="1"/>
+    <col min="6" max="6" width="38.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:49" ht="21" x14ac:dyDescent="0.4">
@@ -762,16 +1170,16 @@
     </row>
     <row r="3" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.3">
@@ -794,9 +1202,11 @@
         <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -891,7 +1301,10 @@
       </c>
       <c r="D10" s="11"/>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>77</v>
+      </c>
+      <c r="F10" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.3">
@@ -918,12 +1331,15 @@
       </c>
       <c r="D12" s="11"/>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>78</v>
+      </c>
+      <c r="F12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>37</v>
@@ -935,7 +1351,7 @@
         <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.3">
@@ -974,10 +1390,13 @@
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>36</v>
       </c>
@@ -991,7 +1410,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
@@ -1003,10 +1422,13 @@
       </c>
       <c r="D18" s="11"/>
       <c r="E18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+      <c r="F18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>14</v>
       </c>
@@ -1018,10 +1440,13 @@
       </c>
       <c r="D19" s="11"/>
       <c r="E19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="F19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>15</v>
       </c>
@@ -1033,10 +1458,13 @@
       </c>
       <c r="D20" s="11"/>
       <c r="E20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="F20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>16</v>
       </c>
@@ -1048,7 +1476,7 @@
       </c>
       <c r="D21" s="11"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>17</v>
       </c>
@@ -1060,7 +1488,7 @@
       </c>
       <c r="D22" s="11"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>18</v>
       </c>
@@ -1072,7 +1500,7 @@
       </c>
       <c r="D23" s="11"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
@@ -1086,10 +1514,13 @@
         <v>37</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>21</v>
       </c>
@@ -1103,7 +1534,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>22</v>
       </c>
@@ -1117,10 +1548,13 @@
         <v>37</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>23</v>
       </c>
@@ -1134,7 +1568,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>25</v>
       </c>
@@ -1146,9 +1580,9 @@
       </c>
       <c r="D28" s="11"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>38</v>
@@ -1158,7 +1592,7 @@
       </c>
       <c r="D29" s="11"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>24</v>
       </c>
@@ -1170,7 +1604,7 @@
       </c>
       <c r="D30" s="11"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>26</v>
       </c>
@@ -1182,7 +1616,7 @@
       </c>
       <c r="D31" s="11"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>27</v>
       </c>
@@ -1232,43 +1666,52 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="D36" s="11"/>
+      <c r="E36" s="16" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D37" s="11"/>
+      <c r="E37" s="16" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="D38" s="11"/>
+      <c r="E38" s="16" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>37</v>
@@ -1277,10 +1720,11 @@
         <v>37</v>
       </c>
       <c r="D39" s="11"/>
+      <c r="E39" s="16"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>37</v>
@@ -1292,37 +1736,34 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D41" s="11"/>
-      <c r="E41" s="16" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="16" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>37</v>
@@ -1332,157 +1773,202 @@
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="16" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D44" s="11"/>
-      <c r="E44" s="16" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D45" s="11"/>
-      <c r="E45" s="16" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>66</v>
+        <v>35</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="D46" s="11"/>
-      <c r="E46" s="16" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="4"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="9"/>
+      <c r="A47" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="D47" s="11"/>
+      <c r="E47" s="16" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="4"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="9"/>
+      <c r="A48" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="D48" s="11"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="4"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="9"/>
+      <c r="E48" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="D49" s="11"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="4"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="9"/>
+      <c r="E49" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="D50" s="11"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="4"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="9"/>
+      <c r="E50" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="D51" s="11"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="4"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="9"/>
+      <c r="E51" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="D52" s="11"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E52" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="6"/>
       <c r="C53" s="9"/>
       <c r="D53" s="11"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="6"/>
       <c r="C54" s="9"/>
       <c r="D54" s="11"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="6"/>
       <c r="C55" s="9"/>
       <c r="D55" s="11"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="6"/>
       <c r="C56" s="9"/>
       <c r="D56" s="11"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="6"/>
       <c r="C57" s="9"/>
       <c r="D57" s="11"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="6"/>
       <c r="C58" s="9"/>
       <c r="D58" s="11"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="6"/>
       <c r="C59" s="9"/>
       <c r="D59" s="11"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="6"/>
       <c r="C60" s="9"/>
       <c r="D60" s="11"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="6"/>
       <c r="C61" s="9"/>
       <c r="D61" s="11"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="B62" s="6"/>
       <c r="C62" s="9"/>
       <c r="D62" s="11"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="6"/>
       <c r="C63" s="9"/>
       <c r="D63" s="11"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="6"/>
       <c r="C64" s="9"/>
@@ -2072,31 +2558,37 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="4"/>
+      <c r="B162" s="6"/>
       <c r="C162" s="9"/>
       <c r="D162" s="11"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="4"/>
+      <c r="B163" s="6"/>
       <c r="C163" s="9"/>
       <c r="D163" s="11"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="4"/>
+      <c r="B164" s="6"/>
       <c r="C164" s="9"/>
       <c r="D164" s="11"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="4"/>
+      <c r="B165" s="6"/>
       <c r="C165" s="9"/>
       <c r="D165" s="11"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="4"/>
+      <c r="B166" s="6"/>
       <c r="C166" s="9"/>
       <c r="D166" s="11"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="4"/>
+      <c r="B167" s="6"/>
       <c r="C167" s="9"/>
       <c r="D167" s="11"/>
     </row>
@@ -2178,26 +2670,32 @@
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="4"/>
       <c r="C183" s="9"/>
+      <c r="D183" s="11"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="4"/>
       <c r="C184" s="9"/>
+      <c r="D184" s="11"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="4"/>
       <c r="C185" s="9"/>
+      <c r="D185" s="11"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="4"/>
       <c r="C186" s="9"/>
+      <c r="D186" s="11"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="4"/>
       <c r="C187" s="9"/>
+      <c r="D187" s="11"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="4"/>
       <c r="C188" s="9"/>
+      <c r="D188" s="11"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="4"/>
@@ -2213,53 +2711,59 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="4"/>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C192" s="9"/>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="4"/>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C193" s="9"/>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="4"/>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C194" s="9"/>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="4"/>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C195" s="9"/>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="4"/>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C196" s="9"/>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="4"/>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C197" s="9"/>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="4"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.3">
@@ -2723,6 +3227,24 @@
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A362" s="4"/>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A363" s="4"/>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A364" s="4"/>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A365" s="4"/>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A366" s="4"/>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A367" s="4"/>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A368" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2731,11 +3253,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2745,22 +3267,52 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Progress tracker.xlsx
+++ b/Progress tracker.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="93">
   <si>
     <t>Function</t>
   </si>
@@ -45,9 +45,6 @@
     <t>chi_diag</t>
   </si>
   <si>
-    <t>compare_two_ES_functions</t>
-  </si>
-  <si>
     <t>R Package: Progress Tracker</t>
   </si>
   <si>
@@ -120,9 +117,6 @@
     <t>tab_to_vec</t>
   </si>
   <si>
-    <t>var_d</t>
-  </si>
-  <si>
     <t>var_lnd</t>
   </si>
   <si>
@@ -133,15 +127,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Part of documentation (see: details) copied almost verbatim from Tredoux (1998, p. 234). Is this fine?</t>
-  </si>
-  <si>
-    <t>Make sure changes to this function reflect in other functions that call this one</t>
   </si>
   <si>
     <t>diag_param</t>
@@ -155,9 +140,6 @@
 </t>
   </si>
   <si>
-    <t>Part of documentation (see: details) copied almost verbatim from Tredoux (1998, p. 223). Is this fine?</t>
-  </si>
-  <si>
     <t>General:</t>
   </si>
   <si>
@@ -179,12 +161,6 @@
     <t>boot</t>
   </si>
   <si>
-    <t xml:space="preserve">One error msg: attempt to use zero-length variable name. Reran and error message disappeared, all worked fine. </t>
-  </si>
-  <si>
-    <t>This doesn't work with a list. Should we edit it so that it does?</t>
-  </si>
-  <si>
     <t>homog_diag_boot</t>
   </si>
   <si>
@@ -197,39 +173,24 @@
     <t>allfoil_ci_low</t>
   </si>
   <si>
-    <t>Ask about this code. Looks like it needs a table of bootstrapped data</t>
-  </si>
-  <si>
     <t>gen_esize_m_ci</t>
   </si>
   <si>
     <t>gen_esize_T_ci</t>
   </si>
   <si>
-    <t>How is this different to the function above?</t>
-  </si>
-  <si>
     <t>gen_boot_propci</t>
   </si>
   <si>
     <t>gen_boot_propmean_se</t>
   </si>
   <si>
-    <t>In progress</t>
-  </si>
-  <si>
-    <t>See comments in documentation re getting df of bootstrapped proportions</t>
-  </si>
-  <si>
     <t>allfoil_cis</t>
   </si>
   <si>
     <t>Partial</t>
   </si>
   <si>
-    <t>We already have a function that can do this for us. Do we still need to include this one?</t>
-  </si>
-  <si>
     <t>diag_param_boot</t>
   </si>
   <si>
@@ -239,32 +200,176 @@
     <t>boot helper</t>
   </si>
   <si>
-    <t>Not sure what this code does</t>
-  </si>
-  <si>
-    <t>Part of documentation (see: details) copied almost verbatim from Tredoux (1998, p. 223). Is this fine? NOT NECESSARY. SAME CALCS in esize_m</t>
-  </si>
-  <si>
     <t>func_size_report</t>
   </si>
   <si>
-    <t>This function and the two below have exactly the same code. Also, we already have a function that does this</t>
-  </si>
-  <si>
     <t>gen_esize_T</t>
   </si>
   <si>
-    <t>How is this different to the function above? Also, is this necessary? We have another function that does this with boot package (see: lineup_boot_allprop, lineup_prop_boot)</t>
-  </si>
-  <si>
     <t>i_esize_T</t>
+  </si>
+  <si>
+    <t>compare_eff_sizes.boot</t>
+  </si>
+  <si>
+    <t>effsize_compare</t>
+  </si>
+  <si>
+    <t>Make sure changes to this function reflect in other functions that call this one. Error message - appears because list has elements of different lengths. Not a problem, but R warns the user as this is unusual</t>
+  </si>
+  <si>
+    <t>Only works if you want tredoux's estimate. If you want both, estimates are calculated incorrectly (together). Ask Colin</t>
+  </si>
+  <si>
+    <t>Doesn't work. Problem with target_pos argument - doesn't recognise</t>
+  </si>
+  <si>
+    <t>make_lineup_data</t>
+  </si>
+  <si>
+    <t>Helper function</t>
+  </si>
+  <si>
+    <t>make_roc_data</t>
+  </si>
+  <si>
+    <t>make_roc_gg</t>
+  </si>
+  <si>
+    <t>make_roc</t>
+  </si>
+  <si>
+    <t>show_lineup</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Might want to make it accessible, shows a lineup, useful </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>YES, I THINK IT WOULD HELP USAGE TO SEE THE LINEUP</t>
+    </r>
+  </si>
+  <si>
+    <t>sim_face</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Experimental function; seems to work, needs checking on another computer etc.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>YES&lt; NEED TO CHECK</t>
+    </r>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Resolved</t>
+  </si>
+  <si>
+    <t>Problem</t>
+  </si>
+  <si>
+    <t>RESOLVED</t>
+  </si>
+  <si>
+    <t>RESOLVED - redundant fx, keeping but not declaring</t>
+  </si>
+  <si>
+    <t>RESOLVED - redundant fx, keeping but not declaring. Done with boot package in another fx</t>
+  </si>
+  <si>
+    <t>RESOLVED - keeping and declaring</t>
+  </si>
+  <si>
+    <t>RESOLVED - redundant fx, keeping but not declaring. Similar to the allprop, lineup_boot_allprop and lineup_prop_boot functions, which provide a wider range of options for Cis</t>
+  </si>
+  <si>
+    <t>This doesn't work with a list. Should we edit it so that it does?  I think so.</t>
+  </si>
+  <si>
+    <t>Will in all likelihood delete this. Not necessary. Can think of simpler way to do this using apply or map fxs., but struggling to find a way to use those functions on every element in a list and its sublists</t>
+  </si>
+  <si>
+    <t>Not nec</t>
+  </si>
+  <si>
+    <r>
+      <t>Comments</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, plus replies</t>
+    </r>
+  </si>
+  <si>
+    <t>RESOLVED - redundant fx, keeping but not declaring. Done with boot package in another fx. If not declaring, does it need documentation?</t>
+  </si>
+  <si>
+    <t>var_diag_ratio</t>
+  </si>
+  <si>
+    <t>Redundant function. Same as esize_m. Delete?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As Colin about this. Not sure it functions as intended. </t>
+  </si>
+  <si>
+    <r>
+      <t>One error msg: attempt to use zero-length variable name. Reran and error message disappeared, all worked fine.  Sounds like it needs more checking.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Will do</t>
+    </r>
+  </si>
+  <si>
+    <t>RESOLVED. Does not work though. But have another function that does the same thing</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Not sure what this code does. Keeping it as 2 fxs in this file are called by the allfoil ci fxs when bootstrapping, which we are also not declaring but are keeping</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,8 +407,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,6 +435,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,7 +573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -459,7 +593,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -471,6 +604,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -785,10 +946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW365"/>
+  <dimension ref="A1:AW366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -801,7 +962,7 @@
   <sheetData>
     <row r="1" spans="1:49" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:49" ht="21" x14ac:dyDescent="0.4">
@@ -809,16 +970,16 @@
     </row>
     <row r="3" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.3">
@@ -838,10 +999,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -893,615 +1054,747 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="11"/>
+        <v>32</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:49" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:49" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:49" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:49" s="55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:49" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:49" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="25"/>
+    </row>
+    <row r="15" spans="1:49" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:49" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="50" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="25"/>
+    </row>
+    <row r="27" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="48"/>
+      <c r="E27" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:49" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:49" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:49" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="26"/>
-    </row>
-    <row r="12" spans="1:49" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:49" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="26"/>
-    </row>
-    <row r="14" spans="1:49" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:49" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="11"/>
-    </row>
-    <row r="17" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="26"/>
-    </row>
-    <row r="18" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="26"/>
-    </row>
-    <row r="19" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+    </row>
+    <row r="28" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="27" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="26"/>
-    </row>
-    <row r="25" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="26"/>
-    </row>
-    <row r="26" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="26"/>
-    </row>
-    <row r="27" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="23" t="s">
+      <c r="C33" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="26"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="11"/>
-    </row>
-    <row r="33" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" s="26"/>
-    </row>
-    <row r="34" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="23" t="s">
+      <c r="B35" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="26"/>
-    </row>
-    <row r="35" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="23" t="s">
+      <c r="B36" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" s="26"/>
-    </row>
-    <row r="36" spans="1:5" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="23" t="s">
+      <c r="B37" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36" s="26"/>
-    </row>
-    <row r="37" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="23" t="s">
+      <c r="B38" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D37" s="26"/>
-    </row>
-    <row r="38" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="23" t="s">
+      <c r="B39" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" s="26"/>
-    </row>
-    <row r="39" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="23" t="s">
+      <c r="B40" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" s="26"/>
-    </row>
-    <row r="40" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="23" t="s">
+      <c r="B41" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="25"/>
+      <c r="E41" s="26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D40" s="26"/>
-    </row>
-    <row r="41" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="23" t="s">
+      <c r="B42" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D41" s="26"/>
-    </row>
-    <row r="42" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D42" s="26"/>
-    </row>
-    <row r="43" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B43" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D43" s="26"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D44" s="11"/>
-      <c r="E44" s="16" t="s">
-        <v>55</v>
+      <c r="B44" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D45" s="11"/>
-      <c r="E45" s="16" t="s">
-        <v>55</v>
+      <c r="E45" s="27" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D46" s="11"/>
-      <c r="E46" s="16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D47" s="11"/>
-      <c r="E47" s="16" t="s">
-        <v>58</v>
+      <c r="E46" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="27" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D48" s="11"/>
-      <c r="E48" s="16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D49" s="11"/>
-      <c r="E49" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="4"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="11"/>
+      <c r="E48" s="27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="27" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="4"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="11"/>
+      <c r="A51" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" s="31"/>
+      <c r="E51" s="32" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="4"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="11"/>
+      <c r="A52" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="31"/>
+      <c r="E52" s="32" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="4"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="11"/>
+      <c r="A53" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53" s="31"/>
+      <c r="E53" s="32" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="4"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="11"/>
+      <c r="A54" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C54" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" s="36"/>
+      <c r="E54" s="37"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="4"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="11"/>
+      <c r="A55" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" s="41"/>
+      <c r="E55" s="42" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="4"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="11"/>
+      <c r="A56" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" s="41"/>
+      <c r="E56" s="42" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
@@ -2153,6 +2446,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="4"/>
+      <c r="B165" s="6"/>
       <c r="C165" s="9"/>
       <c r="D165" s="11"/>
     </row>
@@ -2259,6 +2553,7 @@
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="4"/>
       <c r="C186" s="9"/>
+      <c r="D186" s="11"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="4"/>
@@ -2294,6 +2589,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="4"/>
+      <c r="C195" s="9"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="4"/>
@@ -2804,6 +3100,9 @@
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A365" s="4"/>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A366" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2813,10 +3112,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A6"/>
+  <dimension ref="A2:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2824,24 +3123,41 @@
     <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="26"/>
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="43"/>
+      <c r="B11" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
